--- a/biology/Zoologie/Chimaera/Chimaera.xlsx
+++ b/biology/Zoologie/Chimaera/Chimaera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chimaera est un genre de chimères (poissons abyssaux proches des requins).
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Chimaera se distingue du second genre de chimaéridés, Hydrolagus, par la nageoire anale qui est distincte de la nageoire caudale chez Chimaera mais confluente chez Hydrolagus[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Chimaera se distingue du second genre de chimaéridés, Hydrolagus, par la nageoire anale qui est distincte de la nageoire caudale chez Chimaera mais confluente chez Hydrolagus,.
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (28 mars 2024)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (28 mars 2024) :
 Chimaera argiloba Last, White &amp; Pogonoski, 2008
 Chimaera bahamaensis Kemper, Ebert, Didier &amp; Compagno, 2010
-Chimaera buccanigella Clerkin, Ebert &amp; Kemper, 2017[5]
+Chimaera buccanigella Clerkin, Ebert &amp; Kemper, 2017
 Chimaera carophila Kemper, Ebert, Naylor &amp; Didier, 2014
 Chimaera cubana Howell Rivero, 1936
-Chimaera didierae Clerkin, Ebert &amp; Kemper, 2017[5]
+Chimaera didierae Clerkin, Ebert &amp; Kemper, 2017
 Chimaera fulva Didier, Last &amp; White, 2008
 Chimaera jordani Tanaka, 1905
 Chimaera lignaria Didier, 2002
@@ -563,8 +579,8 @@
 Chimaera owstoni Tanaka, 1905
 Chimaera panthera Didier, 1998
 Chimaera phantasma Jordan &amp; Snyder, 1900
-Chimaera willwatchi Clerkin, Ebert &amp; Kemper, 2017[5]
-Puis en 2024, une nouvelle espèce de la mer d'Andaman est décrite[6]:
+Chimaera willwatchi Clerkin, Ebert &amp; Kemper, 2017
+Puis en 2024, une nouvelle espèce de la mer d'Andaman est décrite:
 Chimaera supapae Ebert, Krajangdara, Fahmi &amp; Kemper, 2024
 			Chimaera cubana
 			Chimaera jordani
